--- a/data/open/OPN_FINAL_ASY_HSCodeClassifications_31-01-20.xlsx
+++ b/data/open/OPN_FINAL_ASY_HSCodeClassifications_31-01-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopigott/Dropbox/2. Work/Repositories/vnso-RAP-tradeStats-materials/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53780409-830D-4844-8C5D-76FC071D1C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFF2A5-F697-F642-93CD-66EDD569B523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{93478F95-04B0-5E40-892A-EBC542A6182D}"/>
+    <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{93478F95-04B0-5E40-892A-EBC542A6182D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>99</t>
   </si>
   <si>
-    <t>HS2</t>
+    <t>HS.Code_2</t>
   </si>
 </sst>
 </file>
@@ -781,9 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D847E6F4-8FE9-E741-88D6-CEE52D7274FD}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/open/OPN_FINAL_ASY_HSCodeClassifications_31-01-20.xlsx
+++ b/data/open/OPN_FINAL_ASY_HSCodeClassifications_31-01-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopigott/Dropbox/2. Work/Repositories/vnso-RAP-tradeStats-materials/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFF2A5-F697-F642-93CD-66EDD569B523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9E04FC-F663-7745-A79F-E3C72902AD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{93478F95-04B0-5E40-892A-EBC542A6182D}"/>
+    <workbookView xWindow="780" yWindow="680" windowWidth="27640" windowHeight="15740" xr2:uid="{93478F95-04B0-5E40-892A-EBC542A6182D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
